--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -40,112 +40,106 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>empty</t>
@@ -160,162 +154,171 @@
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>security</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -325,27 +328,27 @@
     <t>important</t>
   </si>
   <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -355,13 +358,10 @@
     <t>shop</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -809,16 +809,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -838,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,31 +856,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L4">
-        <v>110</v>
-      </c>
-      <c r="M4">
-        <v>110</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -988,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8013698630136986</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1159,16 +1159,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8484848484848485</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1188,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8433420365535248</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1238,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7391304347826086</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8421052631578947</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1288,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7297297297297297</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8297872340425532</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1338,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1359,16 +1359,16 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1438,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1456,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1509,16 +1509,16 @@
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1538,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5686274509803921</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7924528301886793</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L18">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1588,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5666666666666667</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1638,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5608465608465608</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C20">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1688,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.559322033898305</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1706,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1738,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.55</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1756,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.775</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L22">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M22">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1788,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5368217054263565</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C23">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1806,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.7647058823529411</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1838,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5100671140939598</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C24">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1856,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.7586206896551724</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1888,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4871794871794872</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L25">
         <v>20</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25">
-        <v>0.75</v>
-      </c>
-      <c r="L25">
-        <v>30</v>
-      </c>
       <c r="M25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1938,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4615384615384616</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1956,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1988,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4516129032258064</v>
+        <v>0.45</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2006,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L27">
         <v>17</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L27">
-        <v>35</v>
-      </c>
       <c r="M27">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2038,7 +2038,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.7037037037037037</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2088,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2106,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2138,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4193548387096774</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6825396825396826</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2188,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4193548387096774</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2206,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.65</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2238,13 +2238,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.40625</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.6744186046511628</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2288,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3818181818181818</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
         <v>21</v>
@@ -2306,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2338,13 +2338,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.375</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2356,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.6352941176470588</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L34">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2388,13 +2388,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3513513513513514</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2438,13 +2438,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3454545454545455</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K36">
         <v>0.6071428571428571</v>
@@ -2488,13 +2488,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2817460317460317</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C37">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2506,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L37">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="M37">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2538,13 +2538,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2467532467532468</v>
+        <v>0.2</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2556,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.5899581589958159</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="M38">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2588,13 +2588,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2444444444444444</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.5846153846153846</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2638,13 +2638,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2125</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2656,19 +2656,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.5757575757575758</v>
+        <v>0.58</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2688,37 +2688,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1662198391420912</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>311</v>
+        <v>1140</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2738,37 +2738,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07666666666666666</v>
+        <v>0.01548886737657309</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>277</v>
+        <v>3051</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>0.5638297872340425</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2788,49 +2788,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01549386701097482</v>
+        <v>0.01308411214953271</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E43">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3050</v>
+        <v>2112</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>0.5600000000000001</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L43">
+        <v>37</v>
+      </c>
+      <c r="M43">
+        <v>37</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>28</v>
-      </c>
-      <c r="M43">
-        <v>28</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2838,31 +2838,31 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01404494382022472</v>
+        <v>0.004749841671944269</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E44">
-        <v>0.19</v>
+        <v>0.74</v>
       </c>
       <c r="F44">
-        <v>0.8100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2106</v>
+        <v>3143</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.5416666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L44">
         <v>13</v>
@@ -2880,96 +2880,48 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.01205857019810508</v>
-      </c>
-      <c r="C45">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>14</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1147</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5357142857142857</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L46">
         <v>15</v>
       </c>
-      <c r="M45">
+      <c r="M46">
         <v>15</v>
       </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.004733354370463868</v>
-      </c>
-      <c r="C46">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>47</v>
-      </c>
-      <c r="E46">
-        <v>0.68</v>
-      </c>
-      <c r="F46">
-        <v>0.32</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>3154</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="L46">
-        <v>37</v>
-      </c>
-      <c r="M46">
-        <v>37</v>
-      </c>
       <c r="N46">
         <v>1</v>
       </c>
@@ -2980,21 +2932,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.4831460674157304</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3006,15 +2958,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.4814814814814815</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L48">
         <v>13</v>
@@ -3032,21 +2984,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.4814814814814815</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3058,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3084,21 +3036,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3110,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.4222222222222222</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3136,47 +3088,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.3698630136986301</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>27</v>
-      </c>
-      <c r="M53">
-        <v>27</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>46</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.3389830508474576</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3188,47 +3140,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.3205128205128205</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>25</v>
-      </c>
-      <c r="M55">
-        <v>25</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>53</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.3114754098360656</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3240,21 +3192,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.2982456140350877</v>
+        <v>0.359375</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3266,21 +3218,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.296875</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3292,21 +3244,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.1805555555555556</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3318,47 +3270,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.1775700934579439</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N60">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.1209677419354839</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3370,21 +3322,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.08648648648648649</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3396,47 +3348,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>169</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.05190311418685121</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>274</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>0.04086538461538462</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3448,21 +3400,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>399</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K65">
-        <v>0.03724928366762178</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3474,33 +3426,85 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>336</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="K66">
-        <v>0.01004394224733208</v>
+        <v>0.03125</v>
       </c>
       <c r="L66">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N66">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>3154</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K67">
+        <v>0.01553829078801332</v>
+      </c>
+      <c r="L67">
+        <v>14</v>
+      </c>
+      <c r="M67">
+        <v>14</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K68">
+        <v>0.01349654739485248</v>
+      </c>
+      <c r="L68">
+        <v>43</v>
+      </c>
+      <c r="M68">
+        <v>58</v>
+      </c>
+      <c r="N68">
+        <v>0.74</v>
+      </c>
+      <c r="O68">
+        <v>0.26</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3143</v>
       </c>
     </row>
   </sheetData>
